--- a/IT002-OOP/it002m22pmcl/it002m22pmcl2.xlsx
+++ b/IT002-OOP/it002m22pmcl/it002m22pmcl2.xlsx
@@ -490,7 +490,9 @@
       <c r="D3" t="n">
         <v>421.43</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>700</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -509,7 +511,9 @@
       <c r="D4" t="n">
         <v>492.86</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>550</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -526,7 +530,9 @@
         <v>490.71</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>450</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -560,7 +566,9 @@
         <v>389.29</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>600</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -596,7 +604,9 @@
       <c r="D9" t="n">
         <v>600</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>500</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -615,7 +625,9 @@
       <c r="D10" t="n">
         <v>550</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>750</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -634,7 +646,9 @@
       <c r="D11" t="n">
         <v>100</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>216.67</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -653,7 +667,9 @@
       <c r="D12" t="n">
         <v>100</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>750</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -672,7 +688,9 @@
       <c r="D13" t="n">
         <v>600</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>750</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -706,7 +724,9 @@
       <c r="D15" t="n">
         <v>800</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>800</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -725,7 +745,9 @@
       <c r="D16" t="n">
         <v>100</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>700</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -744,7 +766,9 @@
       <c r="D17" t="n">
         <v>800</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>800</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -763,7 +787,9 @@
       <c r="D18" t="n">
         <v>300</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>800</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -782,7 +808,9 @@
       <c r="D19" t="n">
         <v>800</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>800</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -801,7 +829,9 @@
       <c r="D20" t="n">
         <v>600</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>800</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -820,7 +850,9 @@
       <c r="D21" t="n">
         <v>600</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>600</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>

--- a/IT002-OOP/it002m22pmcl/it002m22pmcl2.xlsx
+++ b/IT002-OOP/it002m22pmcl/it002m22pmcl2.xlsx
@@ -493,7 +493,9 @@
       <c r="E3" t="n">
         <v>700</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>800</v>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -514,7 +516,9 @@
       <c r="E4" t="n">
         <v>550</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>500</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -586,7 +590,9 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>800</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -607,7 +613,9 @@
       <c r="E9" t="n">
         <v>500</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>450</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -628,7 +636,9 @@
       <c r="E10" t="n">
         <v>750</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>800</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -649,7 +659,9 @@
       <c r="E11" t="n">
         <v>216.67</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>800</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -670,7 +682,9 @@
       <c r="E12" t="n">
         <v>750</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>800</v>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -691,7 +705,9 @@
       <c r="E13" t="n">
         <v>750</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>800</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -727,7 +743,9 @@
       <c r="E15" t="n">
         <v>800</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>800</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -748,7 +766,9 @@
       <c r="E16" t="n">
         <v>700</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>800</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -769,7 +789,9 @@
       <c r="E17" t="n">
         <v>800</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>800</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -790,7 +812,9 @@
       <c r="E18" t="n">
         <v>800</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>800</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -811,7 +835,9 @@
       <c r="E19" t="n">
         <v>800</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>800</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -832,7 +858,9 @@
       <c r="E20" t="n">
         <v>800</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>800</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -853,7 +881,9 @@
       <c r="E21" t="n">
         <v>600</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>500</v>
+      </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -872,7 +902,9 @@
         <v>800</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>800</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
